--- a/repo/运营商盒子广告位.xlsx
+++ b/repo/运营商盒子广告位.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18310\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18310\Desktop\广告业务\运营商\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6366F5A8-9BE3-4219-A050-EC1EABDAADD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39736E84-3B83-480C-893A-560DDE3FDC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AppKey(通用)" sheetId="1" r:id="rId1"/>
@@ -53,59 +53,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>operator-openscreen-hlj-cmcc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator-preroll-hlj-cmcc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator-pause-hlj-cmcc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator-quit-hlj-cmcc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator-preroll-shaanxi-cmcc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator-openscreen-shaanxi-cmcc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator-pause-shaanxi-cmcc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator-quit-shaanxi-cmcc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator-preroll-hotel-cbn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator-openscreen-hotel-cbn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator-pause-hotel-cbn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator-quit-hotel-cbn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广告位Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>广告位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator-preroll-hlj-cmcc-bl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator-openscreen-hlj-cmcc-bl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator-pause-hlj-cmcc-bl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator-quit-hlj-cmcc-bl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator-openscreen-shaanxi-cmcc-bl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator-preroll-shaanxi-cmcc-bl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator-pause-shaanxi-cmcc-bl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator-quit-shaanxi-cmcc-bl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator-openscreen-hotel-cbn-tc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator-preroll-hotel-cbn-tc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator-pause-hotel-cbn-tc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator-quit-hotel-cbn-tc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,13 +201,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -505,10 +505,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -523,23 +523,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007BFEF2-D401-472A-8560-0A08287C62F8}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="34.58203125" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>18</v>
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -547,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -555,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -563,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -571,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -586,21 +587,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>18</v>
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -608,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -616,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -624,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -632,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -647,21 +649,23 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>18</v>
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -669,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -677,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -685,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -693,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
